--- a/Service/任务记录文档/2015年11月02日至11月08日/服务组-王俊飞-20151101.xlsx
+++ b/Service/任务记录文档/2015年11月02日至11月08日/服务组-王俊飞-20151101.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\iTree\DevelopmentDocument\Service\任务记录文档\2015年11月02日至11月08日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iTree\项目\时间服务\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -152,6 +152,119 @@
   </si>
   <si>
     <t>1、使Spring和hibernate有效整合，不出现异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有进度。由于开会的突发情况，导致本次子任务没有进度。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对于任务的安排，没有考虑到各种情况。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.安排任务时，按时间和事件紧急情况进行全面合理的安排
+2.由于本次任务没有完成，将本次任务推迟到本周四</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.指导第二届iTree成员
+2.与第二届iTree成员进一步理解java规范</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加第二届iTree成员会议</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、配置好Spring的环境，使Spring框架和hibernate框架有效整合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、使Spring和hibernate有效整合，不出现异常
+2、不能再延迟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于整合的原理不是太清楚</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在使用过程中，理解原理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.面试第二届补录的新成员
+2.在项目对一小部分进行简单的spring和hibernate整合的使用
+3.对时间服务2.0版代码进行整体观察，安排下一步添加spring注解的步骤。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.认真对待补录，在规定时间内对补录成员做出有效判断
+2.注意小测试的规范
+3.对项目考虑全面，使添加spring的步骤有条理高效进行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理时间服务问题，为明天开会做准备。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.贴切时间服务的问题
+2.考虑要全面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开大会议，迎接新导师，汇报工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.认真开会
+2.学习其他组知识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring和hibernate整合时有问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.通过网上查询资料解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,6 +455,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -729,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -746,14 +862,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -765,11 +881,11 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -781,11 +897,11 @@
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -817,503 +933,653 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="8">
-        <v>42310</v>
+        <v>42311</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="8">
+        <v>42312</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="8">
+        <v>42313</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="B34" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="8">
+        <v>42314</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="B41" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="B42" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="B43" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="46" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="8">
+        <v>42315</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="B50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="B51" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="B52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="B53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="8">
+        <v>42315</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="57">
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="B53:F53"/>
@@ -1381,14 +1647,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1398,9 +1664,9 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1410,9 +1676,9 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1436,57 +1702,57 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1496,87 +1762,87 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1586,69 +1852,69 @@
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
